--- a/data/fleet_age_build_year.xlsx
+++ b/data/fleet_age_build_year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyven\dev\repos\standard_inputs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B666E1-D56A-4FB0-B52B-1D033BC15DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575999B6-2366-48C6-B1D9-D28DB6B5119B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,14 +380,13 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -405,591 +404,591 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2">
-        <v>894</v>
+        <v>812</v>
       </c>
       <c r="D2">
-        <v>41246</v>
+        <v>143326</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1982</v>
+        <v>2021</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>786</v>
       </c>
       <c r="D3">
-        <v>5410</v>
+        <v>312504</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1983</v>
+        <v>2020</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>719</v>
       </c>
       <c r="D4">
-        <v>3818</v>
+        <v>316766</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1984</v>
+        <v>2019</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>1190</v>
       </c>
       <c r="D5">
-        <v>5123</v>
+        <v>526072</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1985</v>
+        <v>2018</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>1207</v>
       </c>
       <c r="D6">
-        <v>6648</v>
+        <v>587450</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1986</v>
+        <v>2017</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>1077</v>
       </c>
       <c r="D7">
-        <v>12643</v>
+        <v>523181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1987</v>
+        <v>2016</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>68</v>
+        <v>1037</v>
       </c>
       <c r="D8">
-        <v>14082</v>
+        <v>583602</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1988</v>
+        <v>2015</v>
       </c>
       <c r="B9">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>104</v>
+        <v>973</v>
       </c>
       <c r="D9">
-        <v>18502</v>
+        <v>437116</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>135</v>
+        <v>1037</v>
       </c>
       <c r="D10">
-        <v>29426</v>
+        <v>349573</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1990</v>
+        <v>2013</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>160</v>
+        <v>884</v>
       </c>
       <c r="D11">
-        <v>39327</v>
+        <v>308068</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1991</v>
+        <v>2012</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>187</v>
+        <v>876</v>
       </c>
       <c r="D12">
-        <v>52850</v>
+        <v>383691</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1992</v>
+        <v>2011</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>245</v>
+        <v>807</v>
       </c>
       <c r="D13">
-        <v>55084</v>
+        <v>427566</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>204</v>
+        <v>889</v>
       </c>
       <c r="D14">
-        <v>60005</v>
+        <v>405560</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>192</v>
+        <v>869</v>
       </c>
       <c r="D15">
-        <v>62915</v>
+        <v>505334</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1995</v>
+        <v>2008</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>155</v>
+        <v>970</v>
       </c>
       <c r="D16">
-        <v>48231</v>
+        <v>465372</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>248</v>
+        <v>896</v>
       </c>
       <c r="D17">
-        <v>79072</v>
+        <v>396296</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>256</v>
+        <v>721</v>
       </c>
       <c r="D18">
-        <v>79570</v>
+        <v>300833</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="B19">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>411</v>
+        <v>511</v>
       </c>
       <c r="D19">
-        <v>111587</v>
+        <v>194098</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="D20">
-        <v>152486</v>
+        <v>147659</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>519</v>
+        <v>395</v>
       </c>
       <c r="D21">
-        <v>172889</v>
+        <v>147586</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>548</v>
+        <v>439</v>
       </c>
       <c r="D22">
-        <v>175071</v>
+        <v>158016</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>439</v>
+        <v>548</v>
       </c>
       <c r="D23">
-        <v>158016</v>
+        <v>175071</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>395</v>
+        <v>519</v>
       </c>
       <c r="D24">
-        <v>147586</v>
+        <v>172889</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="D25">
-        <v>147659</v>
+        <v>152486</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>511</v>
+        <v>411</v>
       </c>
       <c r="D26">
-        <v>194098</v>
+        <v>111587</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>721</v>
+        <v>256</v>
       </c>
       <c r="D27">
-        <v>300833</v>
+        <v>79570</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>896</v>
+        <v>248</v>
       </c>
       <c r="D28">
-        <v>396296</v>
+        <v>79072</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>970</v>
+        <v>155</v>
       </c>
       <c r="D29">
-        <v>465372</v>
+        <v>48231</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>869</v>
+        <v>192</v>
       </c>
       <c r="D30">
-        <v>505334</v>
+        <v>62915</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2010</v>
+        <v>1993</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>889</v>
+        <v>204</v>
       </c>
       <c r="D31">
-        <v>405560</v>
+        <v>60005</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2011</v>
+        <v>1992</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>807</v>
+        <v>245</v>
       </c>
       <c r="D32">
-        <v>427566</v>
+        <v>55084</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>876</v>
+        <v>187</v>
       </c>
       <c r="D33">
-        <v>383691</v>
+        <v>52850</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>884</v>
+        <v>160</v>
       </c>
       <c r="D34">
-        <v>308068</v>
+        <v>39327</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2014</v>
+        <v>1989</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>1037</v>
+        <v>135</v>
       </c>
       <c r="D35">
-        <v>349573</v>
+        <v>29426</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2015</v>
+        <v>1988</v>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>973</v>
+        <v>104</v>
       </c>
       <c r="D36">
-        <v>437116</v>
+        <v>18502</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2016</v>
+        <v>1987</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C37">
-        <v>1037</v>
+        <v>68</v>
       </c>
       <c r="D37">
-        <v>583602</v>
+        <v>14082</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2017</v>
+        <v>1986</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C38">
-        <v>1077</v>
+        <v>74</v>
       </c>
       <c r="D38">
-        <v>523181</v>
+        <v>12643</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2018</v>
+        <v>1985</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>1207</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>587450</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2019</v>
+        <v>1984</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>1190</v>
+        <v>68</v>
       </c>
       <c r="D40">
-        <v>526072</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2020</v>
+        <v>1983</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>719</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>316766</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2021</v>
+        <v>1982</v>
       </c>
       <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>92</v>
+      </c>
+      <c r="D42">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
         <v>1</v>
       </c>
-      <c r="C42">
-        <v>786</v>
-      </c>
-      <c r="D42">
-        <v>312504</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2022</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
       <c r="C43">
-        <v>812</v>
+        <v>894</v>
       </c>
       <c r="D43">
-        <v>143326</v>
+        <v>41246</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,6 +1017,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+    <sortCondition descending="1" ref="A1:A42"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/fleet_age_build_year.xlsx
+++ b/data/fleet_age_build_year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575999B6-2366-48C6-B1D9-D28DB6B5119B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC653936-77E1-4B56-AA50-F5549742326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>before 1982</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>flights</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -380,13 +383,14 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,11 +1013,14 @@
       <c r="A45" t="s">
         <v>3</v>
       </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
       <c r="C45">
         <v>22923</v>
       </c>
       <c r="D45">
-        <v>9088987</v>
+        <v>90889871</v>
       </c>
     </row>
   </sheetData>
